--- a/BalanceSheet/TDOC_bal.xlsx
+++ b/BalanceSheet/TDOC_bal.xlsx
@@ -416,10 +416,10 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-2877000.0</v>
+        <v>58000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-22340000.0</v>
+        <v>56000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>12000000.0</v>
@@ -1318,19 +1318,19 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-11989000.0</v>
+        <v>34000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>-94579000.0</v>
+        <v>46000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>4740000.0</v>
+        <v>21000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>2346000.0</v>
+        <v>11000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>-502000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>9075000.0</v>
@@ -2594,19 +2594,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>87004000.0</v>
+        <v>85000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>-86062000.0</v>
+        <v>102000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>-639000.0</v>
+        <v>18000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-637000.0</v>
+        <v>19000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>-2820000.0</v>
+        <v>19000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>21678000.0</v>
@@ -4570,7 +4570,7 @@
         <v>-28000000.0</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>-47000000.0</v>
+        <v>-71654000.0</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>-57115000.0</v>
@@ -4673,7 +4673,7 @@
         <v>483000000.0</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>470000000.0</v>
+        <v>445410000.0</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>433760000.0</v>
